--- a/THIS IS도서정보/샘플-도서목록(2021-04-29).xlsx
+++ b/THIS IS도서정보/샘플-도서목록(2021-04-29).xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizworks\DBMS\도서정보\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizworks\DBMS\THIS IS도서정보\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="도서목록" sheetId="2" r:id="rId1"/>
+    <sheet name="sample_books" sheetId="2" r:id="rId1"/>
     <sheet name="도서목록 (2)" sheetId="3" r:id="rId2"/>
     <sheet name="도서-저자" sheetId="4" r:id="rId3"/>
   </sheets>
@@ -1192,7 +1192,7 @@
         <xdr:cNvPr id="1027" name="Picture 3" descr="\\googleads.g.doubleclick.net\pagead\viewthroughconversion\921362370\?value=0&amp;guid=ON&amp;script=0">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1258,7 +1258,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="\\googleads.g.doubleclick.net\pagead\viewthroughconversion\921362370\?value=0&amp;guid=ON&amp;script=0">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1569,7 +1569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -3231,7 +3231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A35"/>
     </sheetView>
   </sheetViews>
@@ -3629,5 +3629,6 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>